--- a/data-raw/NutrientData/nutrientDetails/comp_recalc_cvege_vegetables_FCT.xlsx
+++ b/data-raw/NutrientData/nutrientDetails/comp_recalc_cvege_vegetables_FCT.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\klividini\Dropbox (IFPRI)\Jerry Nelson IMPACT\October 2015\Meeting Oct 19 2015\Keith Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcn/Documents/workspace/nutmod/data-raw/NutrientData/nutrientDetails/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24000" windowHeight="9740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cvege" sheetId="4" r:id="rId1"/>
     <sheet name="FCT" sheetId="5" r:id="rId2"/>
     <sheet name="Weighted composition" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -556,10 +559,10 @@
     <t>Note 5: Watermelons and melons 09326 and 09181 are both included in the fruits composite so have not been included in weighted averages here. JB 110116</t>
   </si>
   <si>
-    <t>vit_d_μg</t>
-  </si>
-  <si>
     <t>pcn_fdsupply_avg</t>
+  </si>
+  <si>
+    <t>vit_d_µg</t>
   </si>
 </sst>
 </file>
@@ -1669,29 +1672,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="22.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="2" customWidth="1"/>
+    <col min="5" max="7" width="22.6640625" style="2" customWidth="1"/>
     <col min="8" max="10" width="11" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="5" customWidth="1"/>
-    <col min="13" max="15" width="20.7109375" style="5" customWidth="1"/>
-    <col min="16" max="17" width="15.28515625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" style="18" customWidth="1"/>
-    <col min="20" max="26" width="15.28515625" customWidth="1"/>
-    <col min="27" max="27" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="24.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" style="5" customWidth="1"/>
+    <col min="13" max="15" width="20.6640625" style="5" customWidth="1"/>
+    <col min="16" max="17" width="15.33203125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" style="18" customWidth="1"/>
+    <col min="20" max="26" width="15.33203125" customWidth="1"/>
+    <col min="27" max="27" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>45</v>
       </c>
@@ -1771,10 +1774,10 @@
         <v>104</v>
       </c>
       <c r="AA1" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>77</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>2.3487644836037553E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>79</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>1.252792825509213E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
         <v>78</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
         <v>173</v>
       </c>
@@ -2091,7 +2094,7 @@
         <v>0.10905259843757964</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="61" t="s">
         <v>175</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>2.7638284721867075E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2238,7 +2241,7 @@
         <v>5.5081676577506199E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2378,7 +2381,7 @@
         <v>1.579094058279153E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2410,7 +2413,7 @@
         <v>1.579094058279153E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>4.5234913286177389E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>0.10092935080807855</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>6.9520152484064013E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>3.4994432358546074E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>3.2456472287368211E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2842,7 +2845,7 @@
         <v>3.8313790635491091E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -3058,7 +3061,7 @@
         <v>1.2925856160101081E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -3125,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
@@ -3197,7 +3200,7 @@
         <v>1.1956212955891114E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>0.13790623497128521</v>
       </c>
     </row>
-    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
@@ -3358,7 +3361,7 @@
         <v>6.9967314488804024E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3502,7 +3505,7 @@
         <v>3.7656041873275509E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>3.2441270367709184E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
@@ -3645,7 +3648,7 @@
         <v>2.9342353981454275E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
@@ -3734,7 +3737,7 @@
         <v>0.25512574921807357</v>
       </c>
     </row>
-    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3806,7 +3809,7 @@
         <v>-7.1687035132640057E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>-2.5441792365461406E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
@@ -3946,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
@@ -4014,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
@@ -4081,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -4149,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
@@ -4214,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
@@ -4286,7 +4289,7 @@
         <v>-7.8562686058079444E-5</v>
       </c>
     </row>
-    <row r="37" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>0</v>
       </c>
@@ -4354,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
@@ -4422,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
@@ -4558,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="19" t="s">
         <v>0</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="X42" s="5" t="s">
         <v>71</v>
       </c>
@@ -4647,7 +4650,7 @@
         <v>0.99999999999999967</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="X43" s="5" t="s">
         <v>72</v>
       </c>
@@ -4657,7 +4660,7 @@
       </c>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="X44" s="5" t="s">
         <v>73</v>
       </c>
@@ -4677,17 +4680,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS41"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
       <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
         <v>82</v>
       </c>
@@ -4788,7 +4791,7 @@
         <v>135</v>
       </c>
       <c r="AH1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AI1" t="s">
         <v>136</v>
@@ -4824,7 +4827,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4944,7 +4947,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5067,7 +5070,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>17</v>
       </c>
@@ -5190,7 +5193,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -5313,7 +5316,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -5556,13 +5559,13 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="41"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -5685,7 +5688,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="38" t="s">
         <v>170</v>
@@ -5806,7 +5809,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -5929,7 +5932,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -6052,7 +6055,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -6175,7 +6178,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -6298,7 +6301,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -6421,7 +6424,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -6544,7 +6547,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
         <v>23</v>
       </c>
@@ -6661,7 +6664,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -6784,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -6904,13 +6907,13 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="41"/>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -7033,7 +7036,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -7156,7 +7159,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -7279,7 +7282,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>18</v>
       </c>
@@ -7399,7 +7402,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -7522,7 +7525,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -7645,7 +7648,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A27" s="48" t="s">
         <v>20</v>
       </c>
@@ -7768,7 +7771,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -7891,7 +7894,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -8011,7 +8014,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -8131,37 +8134,37 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="41"/>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="41"/>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="41"/>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A34" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="41"/>
     </row>
-    <row r="35" spans="1:45" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A35" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="41"/>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -8281,31 +8284,31 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="37" spans="1:45" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" s="33" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="41"/>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="41"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A39" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="41"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40" s="33" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="41"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
         <v>26</v>
       </c>
@@ -8442,9 +8445,9 @@
       <selection pane="bottomLeft" activeCell="D9" sqref="D9:AQ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="str">
         <f>FCT!B1</f>
         <v>usda_code</v>
@@ -8575,7 +8578,7 @@
       </c>
       <c r="AG1" s="56" t="str">
         <f>FCT!AH1</f>
-        <v>vit_d_μg</v>
+        <v>vit_d_µg</v>
       </c>
       <c r="AH1" s="56" t="str">
         <f>FCT!AI1</f>
@@ -8626,7 +8629,7 @@
       <c r="AX1" s="56"/>
       <c r="AY1" s="56"/>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" s="56">
         <f>FCT!B2</f>
         <v>11007</v>
@@ -8800,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" s="56">
         <f>FCT!B3</f>
         <v>11011</v>
@@ -8974,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" s="56">
         <f>FCT!B4</f>
         <v>11052</v>
@@ -9148,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" s="56">
         <f>FCT!B5</f>
         <v>11109</v>
@@ -9322,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" s="56">
         <f>FCT!B6</f>
         <v>16055</v>
@@ -9496,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" s="56">
         <f>FCT!B7</f>
         <v>11124</v>
@@ -9670,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" s="56">
         <f>FCT!B8</f>
         <v>0</v>
@@ -9844,7 +9847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="str">
         <f>FCT!B9</f>
         <v>11135</v>
@@ -10018,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="str">
         <f>FCT!B10</f>
         <v>11090</v>
@@ -10192,7 +10195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" s="56">
         <f>FCT!B11</f>
         <v>11670</v>
@@ -10366,7 +10369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12" s="56">
         <f>FCT!B12</f>
         <v>11205</v>
@@ -10540,7 +10543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13" s="56">
         <f>FCT!B13</f>
         <v>11209</v>
@@ -10714,7 +10717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" s="56">
         <f>FCT!B14</f>
         <v>11215</v>
@@ -10888,7 +10891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" s="56">
         <f>FCT!B15</f>
         <v>11246</v>
@@ -11062,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16" s="56">
         <f>FCT!B16</f>
         <v>11257</v>
@@ -11236,7 +11239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="56">
         <f>FCT!B17</f>
         <v>20014</v>
@@ -11410,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="56" t="str">
         <f>FCT!B18</f>
         <v>09181</v>
@@ -11584,7 +11587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="56">
         <f>FCT!B19</f>
         <v>11265</v>
@@ -11758,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="56">
         <f>FCT!B20</f>
         <v>0</v>
@@ -11932,7 +11935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" s="56">
         <f>FCT!B21</f>
         <v>11278</v>
@@ -12106,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" s="56">
         <f>FCT!B22</f>
         <v>11282</v>
@@ -12280,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" s="56">
         <f>FCT!B23</f>
         <v>11677</v>
@@ -12454,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" s="56">
         <f>FCT!B24</f>
         <v>16085</v>
@@ -12628,7 +12631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" s="56">
         <f>FCT!B25</f>
         <v>11422</v>
@@ -12802,7 +12805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" s="56">
         <f>FCT!B26</f>
         <v>11457</v>
@@ -12976,7 +12979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" s="56">
         <f>FCT!B27</f>
         <v>11052</v>
@@ -13079,7 +13082,7 @@
       </c>
       <c r="Z27" s="57">
         <f>cvege!$AA27*FCT!AA27</f>
-        <v>2.153728782238744E-3</v>
+        <v>2.1537287822387436E-3</v>
       </c>
       <c r="AA27" s="57">
         <f>cvege!$AA27*FCT!AB27</f>
@@ -13150,7 +13153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" s="56">
         <f>FCT!B28</f>
         <v>11529</v>
@@ -13324,7 +13327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" s="56">
         <f>FCT!B29</f>
         <v>11546</v>
@@ -13498,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" s="56">
         <f>FCT!B30</f>
         <v>11885</v>
@@ -13672,7 +13675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" s="56">
         <f>FCT!B31</f>
         <v>0</v>
@@ -13846,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" s="56">
         <f>FCT!B32</f>
         <v>0</v>
@@ -14020,7 +14023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" s="56">
         <f>FCT!B33</f>
         <v>0</v>
@@ -14194,7 +14197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" s="56">
         <f>FCT!B34</f>
         <v>0</v>
@@ -14368,7 +14371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" s="56">
         <f>FCT!B35</f>
         <v>0</v>
@@ -14542,7 +14545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" s="56">
         <f>FCT!B36</f>
         <v>11584</v>
@@ -14716,7 +14719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" s="56">
         <f>FCT!B37</f>
         <v>0</v>
@@ -14890,7 +14893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" s="56">
         <f>FCT!B38</f>
         <v>0</v>
@@ -15064,7 +15067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" s="56">
         <f>FCT!B39</f>
         <v>0</v>
@@ -15238,7 +15241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" s="56">
         <f>FCT!B40</f>
         <v>0</v>
@@ -15412,7 +15415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" s="56" t="str">
         <f>FCT!B41</f>
         <v>09326</v>
@@ -15586,7 +15589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" s="59" t="s">
         <v>174</v>
       </c>
